--- a/AnimalCrossing/Back/crawling/data/fossil.xlsx
+++ b/AnimalCrossing/Back/crawling/data/fossil.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\Desktop\pjt2f\s02p31a403\AnimalCrossing\back\crawling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MJ\git\s02p31a403_ac\AnimalCrossing\Back\crawling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,13 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="117">
-  <si>
-    <t>명칭</t>
-  </si>
-  <si>
-    <t>판매 가격</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>화석</t>
   </si>
@@ -66,33 +60,6 @@
     <t>암모나이트</t>
   </si>
   <si>
-    <t>3,500벨</t>
-  </si>
-  <si>
-    <t>2,000벨</t>
-  </si>
-  <si>
-    <t>3,000벨</t>
-  </si>
-  <si>
-    <t>100벨</t>
-  </si>
-  <si>
-    <t>1,100벨</t>
-  </si>
-  <si>
-    <t>1,500벨</t>
-  </si>
-  <si>
-    <t>1,000벨</t>
-  </si>
-  <si>
-    <t>1,300벨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,000벨 </t>
-  </si>
-  <si>
     <t>데이노니쿠스 머리</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -105,14 +72,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2,500벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,500벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>디메트로돈 몸통</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -121,10 +80,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>5,000벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>디플로도쿠스 머리</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -133,50 +88,26 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>4,500벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>디플로도쿠스 가슴</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>4,000벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>디플로도쿠스 허리</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>4,500벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>디플로도쿠스 꼬리</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>5,000벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>매머드 머리</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3,000벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>매머드 몸통</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2,500벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>메가케롭스 머리</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -185,18 +116,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3,500벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>메가케롭스 꼬리</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3,000벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>메갈로케로스 왼쪽반신</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -370,94 +293,6 @@
   </si>
   <si>
     <t>호박</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,200벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,500벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,000벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,500벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,000벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,000벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,500벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,500벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,000벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,000벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,500벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,500밸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,000벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,500벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,000벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,500벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,500벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,000벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,500벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,500벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,000벨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,500벨</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -541,15 +376,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -855,821 +687,819 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="20.796875" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" style="3"/>
+    <col min="3" max="3" width="8.796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3500</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1500</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1300</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1300</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1100</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>1100</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>1500</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>20</v>
+        <v>71</v>
+      </c>
+      <c r="C15">
+        <v>1200</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>94</v>
+      <c r="C16">
+        <v>3000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>2500</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>5500</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>5000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>31</v>
+      <c r="C20">
+        <v>5000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>31</v>
+      <c r="C21">
+        <v>4500</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>34</v>
+      <c r="C22">
+        <v>4000</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>36</v>
+      <c r="C23">
+        <v>4500</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+      <c r="C24">
+        <v>5000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>40</v>
+      <c r="C25">
+        <v>3000</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>42</v>
+      <c r="C26">
+        <v>2500</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>44</v>
+      <c r="C27">
+        <v>4500</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>38</v>
+      <c r="C28">
+        <v>3500</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>47</v>
+      <c r="C29">
+        <v>3000</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>49</v>
+      <c r="C30">
+        <v>4000</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>36</v>
+      <c r="C31">
+        <v>5500</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>95</v>
+      <c r="C32">
+        <v>6000</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>96</v>
+      <c r="C33">
+        <v>5500</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>95</v>
+      <c r="C34">
+        <v>5000</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>54</v>
+      <c r="C35">
+        <v>5500</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>95</v>
+      <c r="C36">
+        <v>2500</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>97</v>
+      <c r="C37">
+        <v>2000</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>98</v>
+      <c r="C38">
+        <v>5000</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>31</v>
+      <c r="C39">
+        <v>4500</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>38</v>
+      <c r="C40">
+        <v>4000</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>36</v>
+      <c r="C41">
+        <v>4000</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>36</v>
+      <c r="C42">
+        <v>3000</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>99</v>
+      <c r="C43">
+        <v>2500</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>27</v>
+      <c r="C44">
+        <v>4000</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>36</v>
+      <c r="C45">
+        <v>3500</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>15</v>
+      <c r="C46">
+        <v>3500</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>100</v>
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>3000</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>45</v>
+      </c>
+      <c r="C48">
+        <v>2500</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>97</v>
+        <v>72</v>
+      </c>
+      <c r="C49">
+        <v>2500</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>101</v>
+        <v>47</v>
+      </c>
+      <c r="C50">
+        <v>2000</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>102</v>
+        <v>48</v>
+      </c>
+      <c r="C51">
+        <v>4000</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>103</v>
+        <v>49</v>
+      </c>
+      <c r="C52">
+        <v>3500</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>104</v>
+        <v>50</v>
+      </c>
+      <c r="C53">
+        <v>3000</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="C54">
+        <v>4500</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>105</v>
+        <v>52</v>
+      </c>
+      <c r="C55">
+        <v>5000</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>106</v>
+        <v>53</v>
+      </c>
+      <c r="C56">
+        <v>5500</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>107</v>
+        <v>54</v>
+      </c>
+      <c r="C57">
+        <v>5500</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>95</v>
+        <v>55</v>
+      </c>
+      <c r="C58">
+        <v>5000</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>108</v>
+        <v>56</v>
+      </c>
+      <c r="C59">
+        <v>4500</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>109</v>
+        <v>57</v>
+      </c>
+      <c r="C60">
+        <v>6000</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>96</v>
+        <v>58</v>
+      </c>
+      <c r="C61">
+        <v>5500</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>110</v>
+        <v>59</v>
+      </c>
+      <c r="C62">
+        <v>5000</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>111</v>
+        <v>60</v>
+      </c>
+      <c r="C63">
+        <v>3500</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>100</v>
+        <v>61</v>
+      </c>
+      <c r="C64">
+        <v>3000</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>49</v>
+        <v>62</v>
+      </c>
+      <c r="C65">
+        <v>2500</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>112</v>
+        <v>63</v>
+      </c>
+      <c r="C66">
+        <v>4000</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>103</v>
+        <v>64</v>
+      </c>
+      <c r="C67">
+        <v>3500</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>113</v>
+        <v>65</v>
+      </c>
+      <c r="C68">
+        <v>4000</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>114</v>
+        <v>66</v>
+      </c>
+      <c r="C69">
+        <v>4500</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>38</v>
+        <v>67</v>
+      </c>
+      <c r="C70">
+        <v>4000</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>36</v>
+        <v>68</v>
+      </c>
+      <c r="C71">
+        <v>4000</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>36</v>
+        <v>69</v>
+      </c>
+      <c r="C72">
+        <v>4500</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>92</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>38</v>
+        <v>70</v>
+      </c>
+      <c r="C73">
+        <v>4500</v>
       </c>
     </row>
   </sheetData>
